--- a/src/test/resources/testdata/OrangeHrmData.xlsx
+++ b/src/test/resources/testdata/OrangeHrmData.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celil\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F181EDA5-D874-4C55-8F85-C567EC0CA48F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3124D58D-2836-4FE1-8285-FCA88D39AA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FFF325F-099A-42A3-BD71-DA530F866ED9}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{2FFF325F-099A-42A3-BD71-DA530F866ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>LastName</t>
   </si>
@@ -91,6 +88,33 @@
   </si>
   <si>
     <t>Ozcan</t>
+  </si>
+  <si>
+    <t>kemal</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>berk</t>
+  </si>
+  <si>
+    <t>elif</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>zulal</t>
+  </si>
+  <si>
+    <t>zeynep</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>meral</t>
   </si>
 </sst>
 </file>
@@ -444,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6C3A2-EA6F-4833-9F51-FAA2FF11E2C1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,4 +634,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93EE9A1-6B2A-479A-A838-1F36AEE77C30}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>